--- a/第4章excel/排序和筛选/课堂文件-筛选排序.xlsx
+++ b/第4章excel/排序和筛选/课堂文件-筛选排序.xlsx
@@ -16,6 +16,9 @@
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$M$16</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="1">Sheet2!#REF!</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="1">Sheet2!#REF!</definedName>
     <definedName name="学历">[1]基础信息表!$B$2:$B$8</definedName>
     <definedName name="职务">[1]基础信息表!$A$2:$A$5</definedName>
   </definedNames>
@@ -746,9 +749,6 @@
     <xf numFmtId="5" fontId="8" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -764,14 +764,17 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1149,7 +1152,7 @@
   <dimension ref="A1:M45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2739,6 +2742,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:M45">
+    <sortCondition ref="A3"/>
+  </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2750,12 +2756,13 @@
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -3430,161 +3437,119 @@
       <c r="M17" s="25"/>
     </row>
     <row r="18" spans="1:13" ht="14.25">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
     </row>
     <row r="19" spans="1:13" ht="14.25">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
     </row>
     <row r="20" spans="1:13" ht="14.25">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="27"/>
     </row>
     <row r="21" spans="1:13" ht="14.25">
-      <c r="A21" s="32" t="s">
+      <c r="A21" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="27"/>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="29"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="27"/>
     </row>
     <row r="23" spans="1:13" ht="14.25">
-      <c r="A23" s="33" t="s">
+      <c r="A23" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="30"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="27"/>
     </row>
     <row r="24" spans="1:13" ht="14.25">
-      <c r="A24" s="34" t="s">
+      <c r="A24" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="27"/>
     </row>
     <row r="25" spans="1:13" ht="14.25">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="30"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="27"/>
     </row>
     <row r="26" spans="1:13" ht="14.25">
-      <c r="A26" s="34" t="s">
+      <c r="A26" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="30"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="4">
